--- a/outputs/CERESTRES_results/Gasera_vs_Chromat/Master_CON_GS_CO2.xlsx
+++ b/outputs/CERESTRES_results/Gasera_vs_Chromat/Master_CON_GS_CO2.xlsx
@@ -377,12 +377,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>avg_Gasera_CO2_flux_mgm2h</t>
+          <t>avg_Gasera_CCO2_flux_mgm2h</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avg_Gasera_CO2_flux_mgm2h_cor</t>
+          <t>avg_Gasera_CCO2_flux_mgm2h_cor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -401,10 +401,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>-2079.794536263929</v>
+        <v>-154.6954613750029</v>
       </c>
       <c r="D2">
-        <v>-2079.794536263929</v>
+        <v>-154.6954613750029</v>
       </c>
       <c r="E2">
         <v>-65.23291968783575</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>-1785.028353904883</v>
+        <v>-132.7707040094541</v>
       </c>
       <c r="D3">
-        <v>-1785.028353904883</v>
+        <v>-132.7707040094541</v>
       </c>
       <c r="E3">
         <v>-64.01596708895937</v>
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>-1758.223637810744</v>
+        <v>-130.7769647958405</v>
       </c>
       <c r="D4">
-        <v>-1758.223637810744</v>
+        <v>-130.7769647958405</v>
       </c>
       <c r="E4">
         <v>-57.18149842396114</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>-1967.276127467985</v>
+        <v>-146.3263235306765</v>
       </c>
       <c r="D5">
-        <v>-1967.276127467985</v>
+        <v>-146.3263235306765</v>
       </c>
       <c r="E5">
         <v>-50.24976222332433</v>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>-1743.050554796108</v>
+        <v>-129.6483883732642</v>
       </c>
       <c r="D6">
-        <v>-1743.050554796108</v>
+        <v>-129.6483883732642</v>
       </c>
       <c r="E6">
         <v>-45.76682784747948</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>-692.5960848203188</v>
+        <v>-51.51541126762701</v>
       </c>
       <c r="D7">
-        <v>-692.5960848203188</v>
+        <v>-51.51541126762701</v>
       </c>
       <c r="E7">
         <v>-43.11893533325154</v>
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>-1197.104049143059</v>
+        <v>-89.04079704369862</v>
       </c>
       <c r="D8">
-        <v>-1197.104049143059</v>
+        <v>-89.04079704369862</v>
       </c>
       <c r="E8">
         <v>-42.20853780245286</v>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>-720.6531539362354</v>
+        <v>-53.60230070600097</v>
       </c>
       <c r="D9">
-        <v>-720.6531539362354</v>
+        <v>-53.60230070600097</v>
       </c>
       <c r="E9">
         <v>-41.36799828415618</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>-1243.457868178072</v>
+        <v>-92.48860176531113</v>
       </c>
       <c r="D10">
-        <v>-1243.457868178072</v>
+        <v>-92.48860176531113</v>
       </c>
       <c r="E10">
         <v>-38.35030133259533</v>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>-206.2996651189004</v>
+        <v>-15.34460319066201</v>
       </c>
       <c r="D11">
-        <v>-206.2996651189004</v>
+        <v>-15.34460319066201</v>
       </c>
       <c r="E11">
         <v>-24.97898903923096</v>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>-951.8651845091065</v>
+        <v>-70.79988975687567</v>
       </c>
       <c r="D12">
-        <v>-951.8651845091065</v>
+        <v>-70.79988975687567</v>
       </c>
       <c r="E12">
         <v>-24.85464208662519</v>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>-342.1108131086296</v>
+        <v>-25.4462588262617</v>
       </c>
       <c r="D13">
-        <v>-342.1108131086296</v>
+        <v>-25.4462588262617</v>
       </c>
       <c r="E13">
         <v>-22.6275062280996</v>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>-1185.719598807693</v>
+        <v>-88.19401974602674</v>
       </c>
       <c r="D14">
-        <v>-1185.719598807693</v>
+        <v>-88.19401974602674</v>
       </c>
       <c r="E14">
         <v>-18.90298978650668</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>109.7168394419426</v>
+        <v>8.160756652706471</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>-1022.223449942739</v>
+        <v>-76.0331491692946</v>
       </c>
       <c r="D16">
-        <v>-1022.223449942739</v>
+        <v>-76.0331491692946</v>
       </c>
       <c r="E16">
         <v>5.115091324485861</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>-1156.983737623693</v>
+        <v>-86.05664164143167</v>
       </c>
       <c r="D17">
-        <v>-1156.983737623693</v>
+        <v>-86.05664164143167</v>
       </c>
       <c r="E17">
         <v>12.03791241129514</v>
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>-935.6765912545245</v>
+        <v>-69.59577951479933</v>
       </c>
       <c r="D18">
-        <v>-935.6765912545245</v>
+        <v>-69.59577951479933</v>
       </c>
       <c r="E18">
         <v>19.4571409973373</v>
